--- a/Planning/Planning Initial.xlsx
+++ b/Planning/Planning Initial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75C980C-98FB-4A2E-9F17-6B804FF9F24F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A600AE-0A5C-47F2-B2E0-59CEAEA0517F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{18FDC59D-8CB4-46EF-AAD7-1C8DAEE0922B}"/>
   </bookViews>
@@ -63,20 +63,20 @@
     <t>Mise en commun des instrument ext.</t>
   </si>
   <si>
-    <t>Preparation de l'oral</t>
-  </si>
-  <si>
     <t>Girard Victor</t>
   </si>
   <si>
     <t>Ferrer Benjamin</t>
+  </si>
+  <si>
+    <t>Rotary encoder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +94,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -171,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -181,6 +188,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,7 +506,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,8 +565,8 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -574,9 +582,9 @@
       <c r="B5" s="1"/>
       <c r="C5" s="6"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -619,7 +627,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="1"/>
       <c r="I8" s="7"/>
       <c r="J8" s="1"/>
     </row>
@@ -629,8 +637,8 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -642,8 +650,8 @@
         <v>7</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -661,15 +669,15 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B12" s="9"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -682,14 +690,14 @@
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="3"/>
     </row>

--- a/Planning/Planning Initial.xlsx
+++ b/Planning/Planning Initial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A600AE-0A5C-47F2-B2E0-59CEAEA0517F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64143A65-C2C7-420A-8268-9A5C3B1F784E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{18FDC59D-8CB4-46EF-AAD7-1C8DAEE0922B}"/>
   </bookViews>
@@ -506,7 +506,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +668,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="1"/>
       <c r="H11" s="7"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>

--- a/Planning/Planning Initial.xlsx
+++ b/Planning/Planning Initial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64143A65-C2C7-420A-8268-9A5C3B1F784E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402525C0-323B-4DE7-BC61-45FFAA2C12B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{18FDC59D-8CB4-46EF-AAD7-1C8DAEE0922B}"/>
   </bookViews>
@@ -506,7 +506,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +668,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -694,7 +694,9 @@
       </c>
       <c r="B14" s="7"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+    </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>10</v>

--- a/Planning/Planning Initial.xlsx
+++ b/Planning/Planning Initial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402525C0-323B-4DE7-BC61-45FFAA2C12B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E0E2BCD-00AC-4226-B603-EE66BB89940A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{18FDC59D-8CB4-46EF-AAD7-1C8DAEE0922B}"/>
+    <workbookView xWindow="1665" yWindow="2445" windowWidth="15645" windowHeight="8790" xr2:uid="{18FDC59D-8CB4-46EF-AAD7-1C8DAEE0922B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Meteo en reseau</t>
   </si>
@@ -70,13 +70,16 @@
   </si>
   <si>
     <t>Rotary encoder</t>
+  </si>
+  <si>
+    <t>Presentation oral</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,8 +108,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,12 +126,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -185,10 +189,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF72C59-8D5A-4A2A-84F3-670509740179}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,7 +570,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="7"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -580,11 +584,11 @@
         <v>1</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="6"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -595,7 +599,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="1"/>
@@ -628,7 +632,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="7"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -638,7 +642,7 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -651,7 +655,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="7"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -668,8 +672,8 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
@@ -677,7 +681,7 @@
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -685,23 +689,37 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="8"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
